--- a/rs_results/rs_results_cl.xlsx
+++ b/rs_results/rs_results_cl.xlsx
@@ -504,27 +504,27 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="F2" t="n">
         <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.84</v>
+        <v>0.68</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0.8100000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
     </row>
@@ -545,38 +545,38 @@
       <c r="B3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>0.46</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.45</v>
       </c>
       <c r="I3" t="n">
         <v>0.41</v>
       </c>
       <c r="J3" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="H4" t="n">
         <v>0.19</v>
@@ -757,38 +757,38 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0.62</v>
-      </c>
       <c r="E9" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0.58</v>
       </c>
       <c r="I9" t="n">
         <v>0.49</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
     </row>
@@ -799,22 +799,22 @@
       <c r="B10" t="n">
         <v>0.5</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0.41</v>
+      <c r="C10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.32</v>
       </c>
       <c r="E10" t="n">
         <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H10" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>0.35</v>
       </c>
       <c r="I10" t="n">
@@ -825,12 +825,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
     </row>
@@ -841,22 +841,22 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.23</v>
+      <c r="C11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.14</v>
       </c>
-      <c r="H11" t="n">
+      <c r="F11" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0.15</v>
       </c>
       <c r="I11" t="n">
@@ -867,12 +867,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>info_nce</t>
         </is>
       </c>
     </row>
@@ -884,28 +884,28 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -926,37 +926,37 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G13" t="n">
         <v>0.01</v>
       </c>
-      <c r="H13" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="I13" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.01</v>
       </c>
-      <c r="J13" t="n">
+      <c r="G13" s="2" t="n">
         <v>0.01</v>
       </c>
+      <c r="H13" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.01</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>0.26</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.29</v>
-      </c>
       <c r="G16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.22</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.21</v>
       </c>
       <c r="J16" t="n">
         <v>0.23</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
@@ -1074,19 +1074,19 @@
         <v>0.5</v>
       </c>
       <c r="C17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0.23</v>
-      </c>
       <c r="G17" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="H17" t="n">
         <v>0.16</v>
@@ -1095,7 +1095,7 @@
         <v>0.12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1115,38 +1115,38 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0.15</v>
+      <c r="C18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H18" t="n">
         <v>0.08</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
@@ -1157,38 +1157,38 @@
       <c r="B19" t="n">
         <v>1.5</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+      <c r="C19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.02</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>0.02</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.01</v>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
@@ -1200,22 +1200,22 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E20" t="n">
         <v>0.02</v>
       </c>
-      <c r="F20" t="n">
+      <c r="E20" s="2" t="n">
         <v>0.02</v>
       </c>
+      <c r="F20" s="2" t="n">
+        <v>0.02</v>
+      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>barlow, cosine</t>
         </is>
       </c>
     </row>
@@ -1242,37 +1242,37 @@
         <v>2.5</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>barlow</t>
+          <t>cosine</t>
         </is>
       </c>
     </row>
